--- a/data/spat avg trials.xlsx
+++ b/data/spat avg trials.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_54798CA6314AABBB858F3E28082CE12B7B06D669" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B782C88-9E00-4187-A317-6912DFC494D2}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_54798CA6314AABBB858F3E28082CE12B7B06D669" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74200B6B-E192-4141-875B-432F1B730F4C}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7545" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="1470" windowWidth="16800" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trials" sheetId="2" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>INPUT</t>
   </si>
   <si>
@@ -116,13 +110,19 @@
   </si>
   <si>
     <t>IEC-62232-panel-antenna-standard-mesh_Grid3DFE.hfe.zip</t>
+  </si>
+  <si>
+    <t>data_folder</t>
+  </si>
+  <si>
+    <t>MBSpanel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,27 +131,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,6 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -189,14 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -209,57 +188,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -328,15 +283,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:F19" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:F19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="INPUT" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="unit" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:D20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="INPUT" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="unit" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,271 +592,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>900</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
+        <v>-7</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-3</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" s="7" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>900</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" s="10" customFormat="1">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25">
-      <c r="A6" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="16">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="16">
-        <v>-7</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="16">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="16">
-        <v>-3</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="16">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" ht="36.75">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="36.75">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" s="8" customFormat="1">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="14"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
